--- a/target/test-classes/data/UserData.xlsx
+++ b/target/test-classes/data/UserData.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
-    <t>addition</t>
+    <t>Addition</t>
   </si>
 </sst>
 </file>
@@ -381,17 +381,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
